--- a/input/ISIC_4_4digit.xlsx
+++ b/input/ISIC_4_4digit.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C414"/>
+  <dimension ref="A1:C416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2022,4619 +2022,4649 @@
     </row>
     <row r="107">
       <c r="A107" s="1" t="n">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2211</t>
+          <t>2100</t>
         </is>
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t>Manufacture of rubber tyres and tubes; retreading and rebuilding of rubber tyres</t>
+          <t>Manufacture of pharmaceuticals, medicinal chemical and botanical products</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" s="1" t="n">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2219</t>
+          <t>2211</t>
         </is>
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t>Manufacture of other rubber products</t>
+          <t>Manufacture of rubber tyres and tubes; retreading and rebuilding of rubber tyres</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" s="1" t="n">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2220</t>
+          <t>2219</t>
         </is>
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t>Manufacture of plastics products</t>
+          <t>Manufacture of other rubber products</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" s="1" t="n">
-        <v>175</v>
+        <v>172</v>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2310</t>
+          <t>2220</t>
         </is>
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t>Manufacture of glass and glass products</t>
+          <t>Manufacture of plastics products</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" s="1" t="n">
-        <v>178</v>
+        <v>175</v>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2391</t>
+          <t>2310</t>
         </is>
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t>Manufacture of refractory products</t>
+          <t>Manufacture of glass and glass products</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" s="1" t="n">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2392</t>
+          <t>2391</t>
         </is>
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t>Manufacture of clay building materials</t>
+          <t>Manufacture of refractory products</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" s="1" t="n">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2393</t>
+          <t>2392</t>
         </is>
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t>Manufacture of other porcelain and ceramic products</t>
+          <t>Manufacture of clay building materials</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" s="1" t="n">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2394</t>
+          <t>2393</t>
         </is>
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t>Manufacture of cement, lime and plaster</t>
+          <t>Manufacture of other porcelain and ceramic products</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" s="1" t="n">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2395</t>
+          <t>2394</t>
         </is>
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t>Manufacture of articles of concrete, cement and plaster</t>
+          <t>Manufacture of cement, lime and plaster</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" s="1" t="n">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2396</t>
+          <t>2395</t>
         </is>
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t>Cutting, shaping and finishing of stone</t>
+          <t>Manufacture of articles of concrete, cement and plaster</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" s="1" t="n">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2399</t>
+          <t>2396</t>
         </is>
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
+          <t>Cutting, shaping and finishing of stone</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" s="1" t="n">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2410</t>
+          <t>2399</t>
         </is>
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t>Manufacture of basic iron and steel</t>
+          <t>Manufacture of other non-metallic mineral products n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" s="1" t="n">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2420</t>
+          <t>2410</t>
         </is>
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t>Manufacture of basic precious and other non-ferrous metals</t>
+          <t>Manufacture of basic iron and steel</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" s="1" t="n">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2431</t>
+          <t>2420</t>
         </is>
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t>Casting of iron and steel</t>
+          <t>Manufacture of basic precious and other non-ferrous metals</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" s="1" t="n">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2432</t>
+          <t>2431</t>
         </is>
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t>Casting of non-ferrous metals</t>
+          <t>Casting of iron and steel</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" s="1" t="n">
-        <v>195</v>
+        <v>192</v>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2511</t>
+          <t>2432</t>
         </is>
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t>Manufacture of structural metal products</t>
+          <t>Casting of non-ferrous metals</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" s="1" t="n">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2512</t>
+          <t>2511</t>
         </is>
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t>Manufacture of tanks, reservoirs and containers of metal</t>
+          <t>Manufacture of structural metal products</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" s="1" t="n">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2513</t>
+          <t>2512</t>
         </is>
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t>Manufacture of steam generators, except central heating hot water boilers</t>
+          <t>Manufacture of tanks, reservoirs and containers of metal</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" s="1" t="n">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2520</t>
+          <t>2513</t>
         </is>
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t>Manufacture of weapons and ammunition</t>
+          <t>Manufacture of steam generators, except central heating hot water boilers</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" s="1" t="n">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2591</t>
+          <t>2520</t>
         </is>
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t>Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
+          <t>Manufacture of weapons and ammunition</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" s="1" t="n">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2592</t>
+          <t>2591</t>
         </is>
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t>Treatment and coating of metals; machining</t>
+          <t>Forging, pressing, stamping and roll-forming of metal; powder metallurgy</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" s="1" t="n">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2593</t>
+          <t>2592</t>
         </is>
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t>Manufacture of cutlery, hand tools and general hardware</t>
+          <t>Treatment and coating of metals; machining</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" s="1" t="n">
-        <v>204</v>
+        <v>203</v>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2599</t>
+          <t>2593</t>
         </is>
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t>Manufacture of other fabricated metal products n.e.c.</t>
+          <t>Manufacture of cutlery, hand tools and general hardware</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" s="1" t="n">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2610</t>
+          <t>2599</t>
         </is>
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t>Manufacture of electronic components and boards</t>
+          <t>Manufacture of other fabricated metal products n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" s="1" t="n">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2620</t>
+          <t>2610</t>
         </is>
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t>Manufacture of computers and peripheral equipment</t>
+          <t>Manufacture of electronic components and boards</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" s="1" t="n">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2630</t>
+          <t>2620</t>
         </is>
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t>Manufacture of communication equipment</t>
+          <t>Manufacture of computers and peripheral equipment</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" s="1" t="n">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2640</t>
+          <t>2630</t>
         </is>
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t>Manufacture of consumer electronics</t>
+          <t>Manufacture of communication equipment</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" s="1" t="n">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2651</t>
+          <t>2640</t>
         </is>
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t>Manufacture of measuring, testing, navigating and control equipment</t>
+          <t>Manufacture of consumer electronics</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" s="1" t="n">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2652</t>
+          <t>2651</t>
         </is>
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t>Manufacture of watches and clocks</t>
+          <t>Manufacture of measuring, testing, navigating and control equipment</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" s="1" t="n">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2660</t>
+          <t>2652</t>
         </is>
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t>Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
+          <t>Manufacture of watches and clocks</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" s="1" t="n">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2670</t>
+          <t>2660</t>
         </is>
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t>Manufacture of optical instruments and photographic equipment</t>
+          <t>Manufacture of irradiation, electromedical and electrotherapeutic equipment</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" s="1" t="n">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2680</t>
+          <t>2670</t>
         </is>
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t>Manufacture of magnetic and optical media</t>
+          <t>Manufacture of optical instruments and photographic equipment</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" s="1" t="n">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2710</t>
+          <t>2680</t>
         </is>
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t>Manufacture of electric motors, generators, transformers and electricity distri- bution and control apparatus</t>
+          <t>Manufacture of magnetic and optical media</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" s="1" t="n">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2720</t>
+          <t>2710</t>
         </is>
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t>Manufacture of batteries and accumulators</t>
+          <t>Manufacture of electric motors, generators, transformers and electricity distri- bution and control apparatus</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" s="1" t="n">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2731</t>
+          <t>2720</t>
         </is>
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t>Manufacture of fibre optic cables</t>
+          <t>Manufacture of batteries and accumulators</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" s="1" t="n">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2732</t>
+          <t>2731</t>
         </is>
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t>Manufacture of other electronic and electric wires and cables</t>
+          <t>Manufacture of fibre optic cables</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" s="1" t="n">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2733</t>
+          <t>2732</t>
         </is>
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t>Manufacture of wiring devices</t>
+          <t>Manufacture of other electronic and electric wires and cables</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" s="1" t="n">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2740</t>
+          <t>2733</t>
         </is>
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t>Manufacture of electric lighting equipment</t>
+          <t>Manufacture of wiring devices</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" s="1" t="n">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2750</t>
+          <t>2740</t>
         </is>
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t>Manufacture of domestic appliances</t>
+          <t>Manufacture of electric lighting equipment</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" s="1" t="n">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2790</t>
+          <t>2750</t>
         </is>
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t>Manufacture of other electrical equipment</t>
+          <t>Manufacture of domestic appliances</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" s="1" t="n">
-        <v>240</v>
+        <v>237</v>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2811</t>
+          <t>2790</t>
         </is>
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t>Manufacture of engines and turbines, except aircraft, vehicle and cycle engines</t>
+          <t>Manufacture of other electrical equipment</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" s="1" t="n">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2812</t>
+          <t>2811</t>
         </is>
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t>Manufacture of fluid power equipment</t>
+          <t>Manufacture of engines and turbines, except aircraft, vehicle and cycle engines</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" s="1" t="n">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2813</t>
+          <t>2812</t>
         </is>
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t>Manufacture of other pumps, compressors, taps and valves</t>
+          <t>Manufacture of fluid power equipment</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" s="1" t="n">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2814</t>
+          <t>2813</t>
         </is>
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t>Manufacture of bearings, gears, gearing and driving elements</t>
+          <t>Manufacture of other pumps, compressors, taps and valves</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" s="1" t="n">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2815</t>
+          <t>2814</t>
         </is>
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t>Manufacture of ovens, furnaces and furnace burners</t>
+          <t>Manufacture of bearings, gears, gearing and driving elements</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" s="1" t="n">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2816</t>
+          <t>2815</t>
         </is>
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t>Manufacture of lifting and handling equipment</t>
+          <t>Manufacture of ovens, furnaces and furnace burners</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" s="1" t="n">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2817</t>
+          <t>2816</t>
         </is>
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t>Manufacture of office machinery and equipment (except computers and periph- eral equipment)</t>
+          <t>Manufacture of lifting and handling equipment</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" s="1" t="n">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2818</t>
+          <t>2817</t>
         </is>
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t>Manufacture of power-driven hand tools</t>
+          <t>Manufacture of office machinery and equipment (except computers and periph- eral equipment)</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" s="1" t="n">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2819</t>
+          <t>2818</t>
         </is>
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t>Manufacture of other general-purpose machinery</t>
+          <t>Manufacture of power-driven hand tools</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" s="1" t="n">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2821</t>
+          <t>2819</t>
         </is>
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t>Manufacture of agricultural and forestry machinery</t>
+          <t>Manufacture of other general-purpose machinery</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" s="1" t="n">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2822</t>
+          <t>2821</t>
         </is>
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t>Manufacture of metal-forming machinery and machine tools</t>
+          <t>Manufacture of agricultural and forestry machinery</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" s="1" t="n">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2823</t>
+          <t>2822</t>
         </is>
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t>Manufacture of machinery for metallurgy</t>
+          <t>Manufacture of metal-forming machinery and machine tools</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" s="1" t="n">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2824</t>
+          <t>2823</t>
         </is>
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t>Manufacture of machinery for mining, quarrying and construction</t>
+          <t>Manufacture of machinery for metallurgy</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" s="1" t="n">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2825</t>
+          <t>2824</t>
         </is>
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t>Manufacture of machinery for food, beverage and tobacco processing</t>
+          <t>Manufacture of machinery for mining, quarrying and construction</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" s="1" t="n">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2826</t>
+          <t>2825</t>
         </is>
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t>Manufacture of machinery for textile, apparel and leather production</t>
+          <t>Manufacture of machinery for food, beverage and tobacco processing</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" s="1" t="n">
-        <v>258</v>
+        <v>255</v>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2910</t>
+          <t>2826</t>
         </is>
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t>Manufacture of motor vehicles</t>
+          <t>Manufacture of machinery for textile, apparel and leather production</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" s="1" t="n">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2920</t>
+          <t>2910</t>
         </is>
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t>Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semi-trailers</t>
+          <t>Manufacture of motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" s="1" t="n">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2930</t>
+          <t>2920</t>
         </is>
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t>Manufacture of parts and accessories for motor vehicles</t>
+          <t>Manufacture of bodies (coachwork) for motor vehicles; manufacture of trailers and semi-trailers</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" s="1" t="n">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>3011</t>
+          <t>2930</t>
         </is>
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t>Building of ships and floating structures</t>
+          <t>Manufacture of parts and accessories for motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" s="1" t="n">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>3012</t>
+          <t>3011</t>
         </is>
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t>Building of pleasure and sporting boats</t>
+          <t>Building of ships and floating structures</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" s="1" t="n">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>3020</t>
+          <t>3012</t>
         </is>
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t>Manufacture of railway locomotives and rolling stock</t>
+          <t>Building of pleasure and sporting boats</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" s="1" t="n">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>3030</t>
+          <t>3020</t>
         </is>
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t>Manufacture of air and spacecraft and related machinery</t>
+          <t>Manufacture of railway locomotives and rolling stock</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" s="1" t="n">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>3040</t>
+          <t>3030</t>
         </is>
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t>Manufacture of military fighting vehicles</t>
+          <t>Manufacture of air and spacecraft and related machinery</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" s="1" t="n">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>3091</t>
+          <t>3040</t>
         </is>
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t>Manufacture of motorcycles</t>
+          <t>Manufacture of military fighting vehicles</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" s="1" t="n">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>3092</t>
+          <t>3091</t>
         </is>
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t>Manufacture of bicycles and invalid carriages</t>
+          <t>Manufacture of motorcycles</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" s="1" t="n">
-        <v>277</v>
+        <v>274</v>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>3100</t>
+          <t>3092</t>
         </is>
       </c>
       <c r="C172" t="inlineStr">
         <is>
-          <t>Manufacture of furniture</t>
+          <t>Manufacture of bicycles and invalid carriages</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" s="1" t="n">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>3211</t>
+          <t>3100</t>
         </is>
       </c>
       <c r="C173" t="inlineStr">
         <is>
-          <t>Manufacture of jewellery and related articles</t>
+          <t>Manufacture of furniture</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" s="1" t="n">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>3212</t>
+          <t>3211</t>
         </is>
       </c>
       <c r="C174" t="inlineStr">
         <is>
-          <t>Manufacture of imitation jewellery and related articles</t>
+          <t>Manufacture of jewellery and related articles</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" s="1" t="n">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>3220</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="C175" t="inlineStr">
         <is>
-          <t>Manufacture of musical instruments</t>
+          <t>Manufacture of imitation jewellery and related articles</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" s="1" t="n">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>3230</t>
+          <t>3220</t>
         </is>
       </c>
       <c r="C176" t="inlineStr">
         <is>
-          <t>Manufacture of sports goods</t>
+          <t>Manufacture of musical instruments</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" s="1" t="n">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>3240</t>
+          <t>3230</t>
         </is>
       </c>
       <c r="C177" t="inlineStr">
         <is>
-          <t>Manufacture of games and toys</t>
+          <t>Manufacture of sports goods</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" s="1" t="n">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>3250</t>
+          <t>3240</t>
         </is>
       </c>
       <c r="C178" t="inlineStr">
         <is>
-          <t>Manufacture of medical and dental instruments and supplies</t>
+          <t>Manufacture of games and toys</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" s="1" t="n">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>3290</t>
+          <t>3250</t>
         </is>
       </c>
       <c r="C179" t="inlineStr">
         <is>
-          <t>Other manufacturing n.e.c.</t>
+          <t>Manufacture of medical and dental instruments and supplies</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" s="1" t="n">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>3311</t>
+          <t>3290</t>
         </is>
       </c>
       <c r="C180" t="inlineStr">
         <is>
-          <t>Repair of fabricated metal products</t>
+          <t>Other manufacturing n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" s="1" t="n">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>3312</t>
+          <t>3311</t>
         </is>
       </c>
       <c r="C181" t="inlineStr">
         <is>
-          <t>Repair of machinery</t>
+          <t>Repair of fabricated metal products</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" s="1" t="n">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>3313</t>
+          <t>3312</t>
         </is>
       </c>
       <c r="C182" t="inlineStr">
         <is>
-          <t>Repair of electronic and optical equipment</t>
+          <t>Repair of machinery</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" s="1" t="n">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>3314</t>
+          <t>3313</t>
         </is>
       </c>
       <c r="C183" t="inlineStr">
         <is>
-          <t>Repair of electrical equipment</t>
+          <t>Repair of electronic and optical equipment</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" s="1" t="n">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>3315</t>
+          <t>3314</t>
         </is>
       </c>
       <c r="C184" t="inlineStr">
         <is>
-          <t>Repair of transport equipment, except motor vehicles</t>
+          <t>Repair of electrical equipment</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" s="1" t="n">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>3319</t>
+          <t>3315</t>
         </is>
       </c>
       <c r="C185" t="inlineStr">
         <is>
-          <t>Repair of other equipment</t>
+          <t>Repair of transport equipment, except motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" s="1" t="n">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>3320</t>
+          <t>3319</t>
         </is>
       </c>
       <c r="C186" t="inlineStr">
         <is>
-          <t>Installation of industrial machinery and equipment</t>
+          <t>Repair of other equipment</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" s="1" t="n">
-        <v>303</v>
+        <v>300</v>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>3510</t>
+          <t>3320</t>
         </is>
       </c>
       <c r="C187" t="inlineStr">
         <is>
-          <t>Electric power generation, transmission and distribution</t>
+          <t>Installation of industrial machinery and equipment</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" s="1" t="n">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>3520</t>
+          <t>3510</t>
         </is>
       </c>
       <c r="C188" t="inlineStr">
         <is>
-          <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
+          <t>Electric power generation, transmission and distribution</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" s="1" t="n">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>3530</t>
+          <t>3520</t>
         </is>
       </c>
       <c r="C189" t="inlineStr">
         <is>
-          <t>Steam and air conditioning supply</t>
+          <t>Manufacture of gas; distribution of gaseous fuels through mains</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" s="1" t="n">
-        <v>310</v>
+        <v>307</v>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>3600</t>
+          <t>3530</t>
         </is>
       </c>
       <c r="C190" t="inlineStr">
         <is>
-          <t>Water collection, treatment and supply</t>
+          <t>Steam and air conditioning supply</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" s="1" t="n">
-        <v>313</v>
+        <v>310</v>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>3700</t>
+          <t>3600</t>
         </is>
       </c>
       <c r="C191" t="inlineStr">
         <is>
-          <t>Sewerage</t>
+          <t>Water collection, treatment and supply</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" s="1" t="n">
-        <v>316</v>
+        <v>313</v>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>3811</t>
+          <t>3700</t>
         </is>
       </c>
       <c r="C192" t="inlineStr">
         <is>
-          <t>Collection of non-hazardous waste</t>
+          <t>Sewerage</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" s="1" t="n">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>3812</t>
+          <t>3811</t>
         </is>
       </c>
       <c r="C193" t="inlineStr">
         <is>
-          <t>Collection of hazardous waste</t>
+          <t>Collection of non-hazardous waste</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" s="1" t="n">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>3821</t>
+          <t>3812</t>
         </is>
       </c>
       <c r="C194" t="inlineStr">
         <is>
-          <t>Treatment and disposal of non-hazardous waste</t>
+          <t>Collection of hazardous waste</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" s="1" t="n">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>3822</t>
+          <t>3821</t>
         </is>
       </c>
       <c r="C195" t="inlineStr">
         <is>
-          <t>Treatment and disposal of hazardous waste</t>
+          <t>Treatment and disposal of non-hazardous waste</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" s="1" t="n">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>3830</t>
+          <t>3822</t>
         </is>
       </c>
       <c r="C196" t="inlineStr">
         <is>
-          <t>Materials recovery</t>
+          <t>Treatment and disposal of hazardous waste</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" s="1" t="n">
-        <v>325</v>
+        <v>322</v>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>3900</t>
+          <t>3830</t>
         </is>
       </c>
       <c r="C197" t="inlineStr">
         <is>
-          <t>Remediation activities and other waste management services</t>
+          <t>Materials recovery</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" s="1" t="n">
-        <v>328</v>
+        <v>325</v>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>4100</t>
+          <t>3900</t>
         </is>
       </c>
       <c r="C198" t="inlineStr">
         <is>
-          <t>Construction of buildings</t>
+          <t>Remediation activities and other waste management services</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" s="1" t="n">
-        <v>331</v>
+        <v>328</v>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>4210</t>
+          <t>4100</t>
         </is>
       </c>
       <c r="C199" t="inlineStr">
         <is>
-          <t>Construction of roads and railways</t>
+          <t>Construction of buildings</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" s="1" t="n">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>4220</t>
+          <t>4210</t>
         </is>
       </c>
       <c r="C200" t="inlineStr">
         <is>
-          <t>Construction of utility projects</t>
+          <t>Construction of roads and railways</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" s="1" t="n">
-        <v>337</v>
+        <v>333</v>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>4311</t>
+          <t>4220</t>
         </is>
       </c>
       <c r="C201" t="inlineStr">
         <is>
-          <t>Demolition</t>
+          <t>Construction of utility projects</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" s="1" t="n">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>4312</t>
+          <t>4311</t>
         </is>
       </c>
       <c r="C202" t="inlineStr">
         <is>
-          <t>Site preparation</t>
+          <t>Demolition</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" s="1" t="n">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>4321</t>
+          <t>4312</t>
         </is>
       </c>
       <c r="C203" t="inlineStr">
         <is>
-          <t>Electrical installation</t>
+          <t>Site preparation</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" s="1" t="n">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>4322</t>
+          <t>4321</t>
         </is>
       </c>
       <c r="C204" t="inlineStr">
         <is>
-          <t>Plumbing, heat and air-conditioning installation</t>
+          <t>Electrical installation</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" s="1" t="n">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4322</t>
         </is>
       </c>
       <c r="C205" t="inlineStr">
         <is>
-          <t>Other construction installation</t>
+          <t>Plumbing, heat and air-conditioning installation</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" s="1" t="n">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>4330</t>
+          <t>4329</t>
         </is>
       </c>
       <c r="C206" t="inlineStr">
         <is>
-          <t>Building completion and finishing</t>
+          <t>Other construction installation</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" s="1" t="n">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>4390</t>
+          <t>4330</t>
         </is>
       </c>
       <c r="C207" t="inlineStr">
         <is>
-          <t>Other specialized construction activities</t>
+          <t>Building completion and finishing</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" s="1" t="n">
-        <v>349</v>
+        <v>346</v>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>4510</t>
+          <t>4390</t>
         </is>
       </c>
       <c r="C208" t="inlineStr">
         <is>
-          <t>Sale of motor vehicles</t>
+          <t>Other specialized construction activities</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" s="1" t="n">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>4520</t>
+          <t>4510</t>
         </is>
       </c>
       <c r="C209" t="inlineStr">
         <is>
-          <t>Maintenance and repair of motor vehicles</t>
+          <t>Sale of motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" s="1" t="n">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>4530</t>
+          <t>4520</t>
         </is>
       </c>
       <c r="C210" t="inlineStr">
         <is>
-          <t>Sale of motor vehicle parts and accessories</t>
+          <t>Maintenance and repair of motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" s="1" t="n">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>4540</t>
+          <t>4530</t>
         </is>
       </c>
       <c r="C211" t="inlineStr">
         <is>
-          <t>Sale, maintenance and repair of motorcycles and related parts and accessories</t>
+          <t>Sale of motor vehicle parts and accessories</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" s="1" t="n">
-        <v>358</v>
+        <v>355</v>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>4610</t>
+          <t>4540</t>
         </is>
       </c>
       <c r="C212" t="inlineStr">
         <is>
-          <t>Wholesale on a fee or contract basis</t>
+          <t>Sale, maintenance and repair of motorcycles and related parts and accessories</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" s="1" t="n">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>4620</t>
+          <t>4610</t>
         </is>
       </c>
       <c r="C213" t="inlineStr">
         <is>
-          <t>Wholesale of agricultural raw materials and live animals</t>
+          <t>Wholesale on a fee or contract basis</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" s="1" t="n">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>4630</t>
+          <t>4620</t>
         </is>
       </c>
       <c r="C214" t="inlineStr">
         <is>
-          <t>Wholesale of food, beverages and tobacco</t>
+          <t>Wholesale of agricultural raw materials and live animals</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" s="1" t="n">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>4641</t>
+          <t>4630</t>
         </is>
       </c>
       <c r="C215" t="inlineStr">
         <is>
-          <t>Wholesale of textiles, clothing and footwear</t>
+          <t>Wholesale of food, beverages and tobacco</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" s="1" t="n">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>4649</t>
+          <t>4641</t>
         </is>
       </c>
       <c r="C216" t="inlineStr">
         <is>
-          <t>Wholesale of other household goods</t>
+          <t>Wholesale of textiles, clothing and footwear</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" s="1" t="n">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>4651</t>
+          <t>4649</t>
         </is>
       </c>
       <c r="C217" t="inlineStr">
         <is>
-          <t>Wholesale of computers, computer peripheral equipment and software</t>
+          <t>Wholesale of other household goods</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" s="1" t="n">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>4652</t>
+          <t>4651</t>
         </is>
       </c>
       <c r="C218" t="inlineStr">
         <is>
-          <t>Wholesale of electronic and telecommunications equipment and parts</t>
+          <t>Wholesale of computers, computer peripheral equipment and software</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" s="1" t="n">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>4653</t>
+          <t>4652</t>
         </is>
       </c>
       <c r="C219" t="inlineStr">
         <is>
-          <t>Wholesale of agricultural machinery, equipment and supplies</t>
+          <t>Wholesale of electronic and telecommunications equipment and parts</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" s="1" t="n">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>4659</t>
+          <t>4653</t>
         </is>
       </c>
       <c r="C220" t="inlineStr">
         <is>
-          <t>Wholesale of other machinery and equipment</t>
+          <t>Wholesale of agricultural machinery, equipment and supplies</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" s="1" t="n">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>4661</t>
+          <t>4659</t>
         </is>
       </c>
       <c r="C221" t="inlineStr">
         <is>
-          <t>Wholesale of solid, liquid and gaseous fuels and related products</t>
+          <t>Wholesale of other machinery and equipment</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" s="1" t="n">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>4662</t>
+          <t>4661</t>
         </is>
       </c>
       <c r="C222" t="inlineStr">
         <is>
-          <t>Wholesale of metals and metal ores</t>
+          <t>Wholesale of solid, liquid and gaseous fuels and related products</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" s="1" t="n">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>4663</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="C223" t="inlineStr">
         <is>
-          <t>Wholesale of construction materials, hardware, plumbing and heating equip- ment and supplies</t>
+          <t>Wholesale of metals and metal ores</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" s="1" t="n">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>4669</t>
+          <t>4663</t>
         </is>
       </c>
       <c r="C224" t="inlineStr">
         <is>
-          <t>Wholesale of waste and scrap and other products n.e.c.</t>
+          <t>Wholesale of construction materials, hardware, plumbing and heating equip- ment and supplies</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" s="1" t="n">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>4690</t>
+          <t>4669</t>
         </is>
       </c>
       <c r="C225" t="inlineStr">
         <is>
-          <t>Non-specialized wholesale trade</t>
+          <t>Wholesale of waste and scrap and other products n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" s="1" t="n">
-        <v>380</v>
+        <v>377</v>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>4711</t>
+          <t>4690</t>
         </is>
       </c>
       <c r="C226" t="inlineStr">
         <is>
-          <t>Retail sale in non-specialized stores with food, beverages or tobacco predomi- nating</t>
+          <t>Non-specialized wholesale trade</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" s="1" t="n">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>4719</t>
+          <t>4711</t>
         </is>
       </c>
       <c r="C227" t="inlineStr">
         <is>
-          <t>Other retail sale in non-specialized stores</t>
+          <t>Retail sale in non-specialized stores with food, beverages or tobacco predomi- nating</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" s="1" t="n">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>4721</t>
+          <t>4719</t>
         </is>
       </c>
       <c r="C228" t="inlineStr">
         <is>
-          <t>Retail sale of food in specialized stores</t>
+          <t>Other retail sale in non-specialized stores</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" s="1" t="n">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>4722</t>
+          <t>4721</t>
         </is>
       </c>
       <c r="C229" t="inlineStr">
         <is>
-          <t>Retail sale of beverages in specialized stores</t>
+          <t>Retail sale of food in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" s="1" t="n">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>4723</t>
+          <t>4722</t>
         </is>
       </c>
       <c r="C230" t="inlineStr">
         <is>
-          <t>Retail sale of tobacco products in specialized stores</t>
+          <t>Retail sale of beverages in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" s="1" t="n">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>4730</t>
+          <t>4723</t>
         </is>
       </c>
       <c r="C231" t="inlineStr">
         <is>
-          <t>Retail sale of automotive fuel in specialized stores</t>
+          <t>Retail sale of tobacco products in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" s="1" t="n">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>4741</t>
+          <t>4730</t>
         </is>
       </c>
       <c r="C232" t="inlineStr">
         <is>
-          <t>Retail sale of computers, peripheral units, software and telecommunications equipment in specialized stores</t>
+          <t>Retail sale of automotive fuel in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" s="1" t="n">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>4742</t>
+          <t>4741</t>
         </is>
       </c>
       <c r="C233" t="inlineStr">
         <is>
-          <t>Retail sale of audio and video equipment in specialized stores</t>
+          <t>Retail sale of computers, peripheral units, software and telecommunications equipment in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" s="1" t="n">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>4751</t>
+          <t>4742</t>
         </is>
       </c>
       <c r="C234" t="inlineStr">
         <is>
-          <t>Retail sale of textiles in specialized stores</t>
+          <t>Retail sale of audio and video equipment in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" s="1" t="n">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>4752</t>
+          <t>4751</t>
         </is>
       </c>
       <c r="C235" t="inlineStr">
         <is>
-          <t>Retail sale of hardware, paints and glass in specialized stores</t>
+          <t>Retail sale of textiles in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" s="1" t="n">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>4753</t>
+          <t>4752</t>
         </is>
       </c>
       <c r="C236" t="inlineStr">
         <is>
-          <t>Retail sale of carpets, rugs, wall and floor coverings in specialized stores</t>
+          <t>Retail sale of hardware, paints and glass in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" s="1" t="n">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>4759</t>
+          <t>4753</t>
         </is>
       </c>
       <c r="C237" t="inlineStr">
         <is>
-          <t>Retail sale of electrical household appliances, furniture, lighting equipment and other household articles in specialized stores</t>
+          <t>Retail sale of carpets, rugs, wall and floor coverings in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" s="1" t="n">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>4761</t>
+          <t>4759</t>
         </is>
       </c>
       <c r="C238" t="inlineStr">
         <is>
-          <t>Retail sale of books, newspapers and stationary in specialized stores</t>
+          <t>Retail sale of electrical household appliances, furniture, lighting equipment and other household articles in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" s="1" t="n">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>4762</t>
+          <t>4761</t>
         </is>
       </c>
       <c r="C239" t="inlineStr">
         <is>
-          <t>Retail sale of music and video recordings in specialized stores</t>
+          <t>Retail sale of books, newspapers and stationary in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" s="1" t="n">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>4763</t>
+          <t>4762</t>
         </is>
       </c>
       <c r="C240" t="inlineStr">
         <is>
-          <t>Retail sale of sporting equipment in specialized stores</t>
+          <t>Retail sale of music and video recordings in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" s="1" t="n">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>4764</t>
+          <t>4763</t>
         </is>
       </c>
       <c r="C241" t="inlineStr">
         <is>
-          <t>Retail sale of games and toys in specialized stores</t>
+          <t>Retail sale of sporting equipment in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" s="1" t="n">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>4771</t>
+          <t>4764</t>
         </is>
       </c>
       <c r="C242" t="inlineStr">
         <is>
-          <t>Retail sale of clothing, footwear and leather articles in specialized stores</t>
+          <t>Retail sale of games and toys in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" s="1" t="n">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>4772</t>
+          <t>4771</t>
         </is>
       </c>
       <c r="C243" t="inlineStr">
         <is>
-          <t>Retail sale of pharmaceutical and medical goods, cosmetic and toilet articles in specialized stores</t>
+          <t>Retail sale of clothing, footwear and leather articles in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" s="1" t="n">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>4773</t>
+          <t>4772</t>
         </is>
       </c>
       <c r="C244" t="inlineStr">
         <is>
-          <t>Other retail sale of new goods in specialized stores</t>
+          <t>Retail sale of pharmaceutical and medical goods, cosmetic and toilet articles in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" s="1" t="n">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>4774</t>
+          <t>4773</t>
         </is>
       </c>
       <c r="C245" t="inlineStr">
         <is>
-          <t>Retail sale of second-hand goods</t>
+          <t>Other retail sale of new goods in specialized stores</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" s="1" t="n">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>4781</t>
+          <t>4774</t>
         </is>
       </c>
       <c r="C246" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets of food, beverages and tobacco products</t>
+          <t>Retail sale of second-hand goods</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" s="1" t="n">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>4782</t>
+          <t>4781</t>
         </is>
       </c>
       <c r="C247" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets of textiles, clothing and footwear</t>
+          <t>Retail sale via stalls and markets of food, beverages and tobacco products</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" s="1" t="n">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>4789</t>
+          <t>4782</t>
         </is>
       </c>
       <c r="C248" t="inlineStr">
         <is>
-          <t>Retail sale via stalls and markets of other goods</t>
+          <t>Retail sale via stalls and markets of textiles, clothing and footwear</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" s="1" t="n">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>4791</t>
+          <t>4789</t>
         </is>
       </c>
       <c r="C249" t="inlineStr">
         <is>
-          <t>Retail sale via mail order houses or via Internet</t>
+          <t>Retail sale via stalls and markets of other goods</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" s="1" t="n">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>4799</t>
+          <t>4791</t>
         </is>
       </c>
       <c r="C250" t="inlineStr">
         <is>
-          <t>Other retail sale not in stores, stalls or markets</t>
+          <t>Retail sale via mail order houses or via Internet</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" s="1" t="n">
-        <v>415</v>
+        <v>412</v>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>4911</t>
+          <t>4799</t>
         </is>
       </c>
       <c r="C251" t="inlineStr">
         <is>
-          <t>Passenger rail transport, interurban</t>
+          <t>Other retail sale not in stores, stalls or markets</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" s="1" t="n">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>4912</t>
+          <t>4911</t>
         </is>
       </c>
       <c r="C252" t="inlineStr">
         <is>
-          <t>Freight rail transport</t>
+          <t>Passenger rail transport, interurban</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" s="1" t="n">
-        <v>418</v>
+        <v>416</v>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>4921</t>
+          <t>4912</t>
         </is>
       </c>
       <c r="C253" t="inlineStr">
         <is>
-          <t>Urban and suburban passenger land transport</t>
+          <t>Freight rail transport</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" s="1" t="n">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>4922</t>
+          <t>4921</t>
         </is>
       </c>
       <c r="C254" t="inlineStr">
         <is>
-          <t>Other passenger land transport</t>
+          <t>Urban and suburban passenger land transport</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" s="1" t="n">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>4923</t>
+          <t>4922</t>
         </is>
       </c>
       <c r="C255" t="inlineStr">
         <is>
-          <t>Freight transport by road</t>
+          <t>Other passenger land transport</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" s="1" t="n">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>4930</t>
+          <t>4923</t>
         </is>
       </c>
       <c r="C256" t="inlineStr">
         <is>
-          <t>Transport via pipeline</t>
+          <t>Freight transport by road</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" s="1" t="n">
-        <v>425</v>
+        <v>422</v>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>5011</t>
+          <t>4930</t>
         </is>
       </c>
       <c r="C257" t="inlineStr">
         <is>
-          <t>Sea and coastal passenger water transport</t>
+          <t>Transport via pipeline</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" s="1" t="n">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>5012</t>
+          <t>5011</t>
         </is>
       </c>
       <c r="C258" t="inlineStr">
         <is>
-          <t>Sea and coastal freight water transport</t>
+          <t>Sea and coastal passenger water transport</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" s="1" t="n">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>5021</t>
+          <t>5012</t>
         </is>
       </c>
       <c r="C259" t="inlineStr">
         <is>
-          <t>Inland passenger water transport</t>
+          <t>Sea and coastal freight water transport</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" s="1" t="n">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>5022</t>
+          <t>5021</t>
         </is>
       </c>
       <c r="C260" t="inlineStr">
         <is>
-          <t>Inland freight water transport</t>
+          <t>Inland passenger water transport</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" s="1" t="n">
-        <v>432</v>
+        <v>429</v>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>5110</t>
+          <t>5022</t>
         </is>
       </c>
       <c r="C261" t="inlineStr">
         <is>
-          <t>Passenger air transport</t>
+          <t>Inland freight water transport</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" s="1" t="n">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>5120</t>
+          <t>5110</t>
         </is>
       </c>
       <c r="C262" t="inlineStr">
         <is>
-          <t>Freight air transport</t>
+          <t>Passenger air transport</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" s="1" t="n">
-        <v>437</v>
+        <v>434</v>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>5210</t>
+          <t>5120</t>
         </is>
       </c>
       <c r="C263" t="inlineStr">
         <is>
-          <t>Warehousing and storage</t>
+          <t>Freight air transport</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" s="1" t="n">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>5221</t>
+          <t>5210</t>
         </is>
       </c>
       <c r="C264" t="inlineStr">
         <is>
-          <t>Service activities incidental to land transportation</t>
+          <t>Warehousing and storage</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" s="1" t="n">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>5222</t>
+          <t>5221</t>
         </is>
       </c>
       <c r="C265" t="inlineStr">
         <is>
-          <t>Service activities incidental to water transportation</t>
+          <t>Service activities incidental to land transportation</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" s="1" t="n">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>5223</t>
+          <t>5222</t>
         </is>
       </c>
       <c r="C266" t="inlineStr">
         <is>
-          <t>Service activities incidental to air transportation</t>
+          <t>Service activities incidental to water transportation</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" s="1" t="n">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>5224</t>
+          <t>5223</t>
         </is>
       </c>
       <c r="C267" t="inlineStr">
         <is>
-          <t>Cargo handling</t>
+          <t>Service activities incidental to air transportation</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" s="1" t="n">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>5229</t>
+          <t>5224</t>
         </is>
       </c>
       <c r="C268" t="inlineStr">
         <is>
-          <t>Other transportation support activities</t>
+          <t>Cargo handling</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" s="1" t="n">
-        <v>446</v>
+        <v>443</v>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>5310</t>
+          <t>5229</t>
         </is>
       </c>
       <c r="C269" t="inlineStr">
         <is>
-          <t>Postal activities</t>
+          <t>Other transportation support activities</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" s="1" t="n">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>5320</t>
+          <t>5310</t>
         </is>
       </c>
       <c r="C270" t="inlineStr">
         <is>
-          <t>Courier activities</t>
+          <t>Postal activities</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" s="1" t="n">
-        <v>451</v>
+        <v>448</v>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>5510</t>
+          <t>5320</t>
         </is>
       </c>
       <c r="C271" t="inlineStr">
         <is>
-          <t>Short term accommodation activities</t>
+          <t>Courier activities</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" s="1" t="n">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>5520</t>
+          <t>5510</t>
         </is>
       </c>
       <c r="C272" t="inlineStr">
         <is>
-          <t>Camping grounds, recreational vehicle parks and trailer parks</t>
+          <t>Short term accommodation activities</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" s="1" t="n">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>5590</t>
+          <t>5520</t>
         </is>
       </c>
       <c r="C273" t="inlineStr">
         <is>
-          <t>Other accommodation</t>
+          <t>Camping grounds, recreational vehicle parks and trailer parks</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" s="1" t="n">
-        <v>458</v>
+        <v>455</v>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>5610</t>
+          <t>5590</t>
         </is>
       </c>
       <c r="C274" t="inlineStr">
         <is>
-          <t>Restaurants and mobile food service activities</t>
+          <t>Other accommodation</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" s="1" t="n">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>5621</t>
+          <t>5610</t>
         </is>
       </c>
       <c r="C275" t="inlineStr">
         <is>
-          <t>Event catering</t>
+          <t>Restaurants and mobile food service activities</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" s="1" t="n">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>5629</t>
+          <t>5621</t>
         </is>
       </c>
       <c r="C276" t="inlineStr">
         <is>
-          <t>Other food service activities</t>
+          <t>Event catering</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" s="1" t="n">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>5630</t>
+          <t>5629</t>
         </is>
       </c>
       <c r="C277" t="inlineStr">
         <is>
-          <t>Beverage serving activities</t>
+          <t>Other food service activities</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" s="1" t="n">
-        <v>466</v>
+        <v>463</v>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>5811</t>
+          <t>5630</t>
         </is>
       </c>
       <c r="C278" t="inlineStr">
         <is>
-          <t>Book publishing</t>
+          <t>Beverage serving activities</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" s="1" t="n">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>5812</t>
+          <t>5811</t>
         </is>
       </c>
       <c r="C279" t="inlineStr">
         <is>
-          <t>Publishing of directories and mailing lists</t>
+          <t>Book publishing</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" s="1" t="n">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>5813</t>
+          <t>5812</t>
         </is>
       </c>
       <c r="C280" t="inlineStr">
         <is>
-          <t>Publishing of newspapers, journals and periodicals</t>
+          <t>Publishing of directories and mailing lists</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" s="1" t="n">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>5819</t>
+          <t>5813</t>
         </is>
       </c>
       <c r="C281" t="inlineStr">
         <is>
-          <t>Other publishing activities</t>
+          <t>Publishing of newspapers, journals and periodicals</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" s="1" t="n">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>5820</t>
+          <t>5819</t>
         </is>
       </c>
       <c r="C282" t="inlineStr">
         <is>
-          <t>Software publishing</t>
+          <t>Other publishing activities</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" s="1" t="n">
-        <v>474</v>
+        <v>471</v>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>5911</t>
+          <t>5820</t>
         </is>
       </c>
       <c r="C283" t="inlineStr">
         <is>
-          <t>Motion picture, video and television programme production activities</t>
+          <t>Software publishing</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" s="1" t="n">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>5912</t>
+          <t>5911</t>
         </is>
       </c>
       <c r="C284" t="inlineStr">
         <is>
-          <t>Motion picture, video and television programme post-production activities</t>
+          <t>Motion picture, video and television programme production activities</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" s="1" t="n">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>5913</t>
+          <t>5912</t>
         </is>
       </c>
       <c r="C285" t="inlineStr">
         <is>
-          <t>Motion picture, video and television programme distribution activities</t>
+          <t>Motion picture, video and television programme post-production activities</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" s="1" t="n">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>5914</t>
+          <t>5913</t>
         </is>
       </c>
       <c r="C286" t="inlineStr">
         <is>
-          <t>Motion picture projection activities</t>
+          <t>Motion picture, video and television programme distribution activities</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" s="1" t="n">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>5920</t>
+          <t>5914</t>
         </is>
       </c>
       <c r="C287" t="inlineStr">
         <is>
-          <t>Sound recording and music publishing activities</t>
+          <t>Motion picture projection activities</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" s="1" t="n">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>6010</t>
+          <t>5920</t>
         </is>
       </c>
       <c r="C288" t="inlineStr">
         <is>
-          <t>Radio broadcasting</t>
+          <t>Sound recording and music publishing activities</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" s="1" t="n">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>6020</t>
+          <t>6010</t>
         </is>
       </c>
       <c r="C289" t="inlineStr">
         <is>
-          <t>Television programming and broadcasting activities</t>
+          <t>Radio broadcasting</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" s="1" t="n">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>6110</t>
+          <t>6020</t>
         </is>
       </c>
       <c r="C290" t="inlineStr">
         <is>
-          <t>Wired telecommunications activities</t>
+          <t>Television programming and broadcasting activities</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" s="1" t="n">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>6120</t>
+          <t>6110</t>
         </is>
       </c>
       <c r="C291" t="inlineStr">
         <is>
-          <t>Wireless telecommunications activities</t>
+          <t>Wired telecommunications activities</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" s="1" t="n">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>6130</t>
+          <t>6120</t>
         </is>
       </c>
       <c r="C292" t="inlineStr">
         <is>
-          <t>Satellite telecommunications activities</t>
+          <t>Wireless telecommunications activities</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" s="1" t="n">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>6190</t>
+          <t>6130</t>
         </is>
       </c>
       <c r="C293" t="inlineStr">
         <is>
-          <t>Other telecommunications activities</t>
+          <t>Satellite telecommunications activities</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" s="1" t="n">
-        <v>495</v>
+        <v>492</v>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>6201</t>
+          <t>6190</t>
         </is>
       </c>
       <c r="C294" t="inlineStr">
         <is>
-          <t>Computer programming activities</t>
+          <t>Other telecommunications activities</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" s="1" t="n">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>6202</t>
+          <t>6201</t>
         </is>
       </c>
       <c r="C295" t="inlineStr">
         <is>
-          <t>Computer consultancy and computer facilities management activities</t>
+          <t>Computer programming activities</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" s="1" t="n">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>6209</t>
+          <t>6202</t>
         </is>
       </c>
       <c r="C296" t="inlineStr">
         <is>
-          <t>Other information technology and computer service activities</t>
+          <t>Computer consultancy and computer facilities management activities</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" s="1" t="n">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>6311</t>
+          <t>6209</t>
         </is>
       </c>
       <c r="C297" t="inlineStr">
         <is>
-          <t>Data processing, hosting and related activities</t>
+          <t>Other information technology and computer service activities</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" s="1" t="n">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>6312</t>
+          <t>6311</t>
         </is>
       </c>
       <c r="C298" t="inlineStr">
         <is>
-          <t>Web portals</t>
+          <t>Data processing, hosting and related activities</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" s="1" t="n">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>6391</t>
+          <t>6312</t>
         </is>
       </c>
       <c r="C299" t="inlineStr">
         <is>
-          <t>News agency activities</t>
+          <t>Web portals</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" s="1" t="n">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>6399</t>
+          <t>6391</t>
         </is>
       </c>
       <c r="C300" t="inlineStr">
         <is>
-          <t>Other information service activities n.e.c.</t>
+          <t>News agency activities</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" s="1" t="n">
-        <v>507</v>
+        <v>504</v>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>6411</t>
+          <t>6399</t>
         </is>
       </c>
       <c r="C301" t="inlineStr">
         <is>
-          <t>Central banking</t>
+          <t>Other information service activities n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="302">
       <c r="A302" s="1" t="n">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B302" t="inlineStr">
         <is>
-          <t>6419</t>
+          <t>6411</t>
         </is>
       </c>
       <c r="C302" t="inlineStr">
         <is>
-          <t>Other monetary intermediation</t>
+          <t>Central banking</t>
         </is>
       </c>
     </row>
     <row r="303">
       <c r="A303" s="1" t="n">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B303" t="inlineStr">
         <is>
-          <t>6420</t>
+          <t>6419</t>
         </is>
       </c>
       <c r="C303" t="inlineStr">
         <is>
-          <t>Activities of holding companies</t>
+          <t>Other monetary intermediation</t>
         </is>
       </c>
     </row>
     <row r="304">
       <c r="A304" s="1" t="n">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B304" t="inlineStr">
         <is>
-          <t>6430</t>
+          <t>6420</t>
         </is>
       </c>
       <c r="C304" t="inlineStr">
         <is>
-          <t>Trusts, funds and similar financial entities</t>
+          <t>Activities of holding companies</t>
         </is>
       </c>
     </row>
     <row r="305">
       <c r="A305" s="1" t="n">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B305" t="inlineStr">
         <is>
-          <t>6491</t>
+          <t>6430</t>
         </is>
       </c>
       <c r="C305" t="inlineStr">
         <is>
-          <t>Financial leasing</t>
+          <t>Trusts, funds and similar financial entities</t>
         </is>
       </c>
     </row>
     <row r="306">
       <c r="A306" s="1" t="n">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B306" t="inlineStr">
         <is>
-          <t>6492</t>
+          <t>6491</t>
         </is>
       </c>
       <c r="C306" t="inlineStr">
         <is>
-          <t>Other credit granting</t>
+          <t>Financial leasing</t>
         </is>
       </c>
     </row>
     <row r="307">
       <c r="A307" s="1" t="n">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B307" t="inlineStr">
         <is>
-          <t>6499</t>
+          <t>6492</t>
         </is>
       </c>
       <c r="C307" t="inlineStr">
         <is>
-          <t>Other financial service activities, except insurance and pension funding activi- ties, n.e.c.</t>
+          <t>Other credit granting</t>
         </is>
       </c>
     </row>
     <row r="308">
       <c r="A308" s="1" t="n">
-        <v>519</v>
+        <v>516</v>
       </c>
       <c r="B308" t="inlineStr">
         <is>
-          <t>6511</t>
+          <t>6499</t>
         </is>
       </c>
       <c r="C308" t="inlineStr">
         <is>
-          <t>Life insurance</t>
+          <t>Other financial service activities, except insurance and pension funding activi- ties, n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="309">
       <c r="A309" s="1" t="n">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B309" t="inlineStr">
         <is>
-          <t>6512</t>
+          <t>6511</t>
         </is>
       </c>
       <c r="C309" t="inlineStr">
         <is>
-          <t>Non-life insurance</t>
+          <t>Life insurance</t>
         </is>
       </c>
     </row>
     <row r="310">
       <c r="A310" s="1" t="n">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B310" t="inlineStr">
         <is>
-          <t>6520</t>
+          <t>6512</t>
         </is>
       </c>
       <c r="C310" t="inlineStr">
         <is>
-          <t>Reinsurance</t>
+          <t>Non-life insurance</t>
         </is>
       </c>
     </row>
     <row r="311">
       <c r="A311" s="1" t="n">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B311" t="inlineStr">
         <is>
-          <t>6530</t>
+          <t>6520</t>
         </is>
       </c>
       <c r="C311" t="inlineStr">
         <is>
-          <t>Pension funding</t>
+          <t>Reinsurance</t>
         </is>
       </c>
     </row>
     <row r="312">
       <c r="A312" s="1" t="n">
-        <v>527</v>
+        <v>524</v>
       </c>
       <c r="B312" t="inlineStr">
         <is>
-          <t>6611</t>
+          <t>6530</t>
         </is>
       </c>
       <c r="C312" t="inlineStr">
         <is>
-          <t>Administration of financial markets</t>
+          <t>Pension funding</t>
         </is>
       </c>
     </row>
     <row r="313">
       <c r="A313" s="1" t="n">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B313" t="inlineStr">
         <is>
-          <t>6612</t>
+          <t>6611</t>
         </is>
       </c>
       <c r="C313" t="inlineStr">
         <is>
-          <t>Security and commodity contracts brokerage</t>
+          <t>Administration of financial markets</t>
         </is>
       </c>
     </row>
     <row r="314">
       <c r="A314" s="1" t="n">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B314" t="inlineStr">
         <is>
-          <t>6619</t>
+          <t>6612</t>
         </is>
       </c>
       <c r="C314" t="inlineStr">
         <is>
-          <t>Other activities auxiliary to financial service activities</t>
+          <t>Security and commodity contracts brokerage</t>
         </is>
       </c>
     </row>
     <row r="315">
       <c r="A315" s="1" t="n">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B315" t="inlineStr">
         <is>
-          <t>6621</t>
+          <t>6619</t>
         </is>
       </c>
       <c r="C315" t="inlineStr">
         <is>
-          <t>Risk and damage evaluation</t>
+          <t>Other activities auxiliary to financial service activities</t>
         </is>
       </c>
     </row>
     <row r="316">
       <c r="A316" s="1" t="n">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B316" t="inlineStr">
         <is>
-          <t>6622</t>
+          <t>6621</t>
         </is>
       </c>
       <c r="C316" t="inlineStr">
         <is>
-          <t>Activities of insurance agents and brokers</t>
+          <t>Risk and damage evaluation</t>
         </is>
       </c>
     </row>
     <row r="317">
       <c r="A317" s="1" t="n">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B317" t="inlineStr">
         <is>
-          <t>6629</t>
+          <t>6622</t>
         </is>
       </c>
       <c r="C317" t="inlineStr">
         <is>
-          <t>Other activities auxiliary to insurance and pension funding</t>
+          <t>Activities of insurance agents and brokers</t>
         </is>
       </c>
     </row>
     <row r="318">
       <c r="A318" s="1" t="n">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B318" t="inlineStr">
         <is>
-          <t>6630</t>
+          <t>6629</t>
         </is>
       </c>
       <c r="C318" t="inlineStr">
         <is>
-          <t>Fund management activities</t>
+          <t>Other activities auxiliary to insurance and pension funding</t>
         </is>
       </c>
     </row>
     <row r="319">
       <c r="A319" s="1" t="n">
-        <v>537</v>
+        <v>534</v>
       </c>
       <c r="B319" t="inlineStr">
         <is>
-          <t>6810</t>
+          <t>6630</t>
         </is>
       </c>
       <c r="C319" t="inlineStr">
         <is>
-          <t>Real estate activities with own or leased property</t>
+          <t>Fund management activities</t>
         </is>
       </c>
     </row>
     <row r="320">
       <c r="A320" s="1" t="n">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B320" t="inlineStr">
         <is>
-          <t>6820</t>
+          <t>6810</t>
         </is>
       </c>
       <c r="C320" t="inlineStr">
         <is>
-          <t>Real estate activities on a fee or contract basis</t>
+          <t>Real estate activities with own or leased property</t>
         </is>
       </c>
     </row>
     <row r="321">
       <c r="A321" s="1" t="n">
-        <v>542</v>
+        <v>539</v>
       </c>
       <c r="B321" t="inlineStr">
         <is>
-          <t>6910</t>
+          <t>6820</t>
         </is>
       </c>
       <c r="C321" t="inlineStr">
         <is>
-          <t>Legal activities</t>
+          <t>Real estate activities on a fee or contract basis</t>
         </is>
       </c>
     </row>
     <row r="322">
       <c r="A322" s="1" t="n">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B322" t="inlineStr">
         <is>
-          <t>6920</t>
+          <t>6910</t>
         </is>
       </c>
       <c r="C322" t="inlineStr">
         <is>
-          <t>Accounting, bookkeeping and auditing activities; tax consultancy</t>
+          <t>Legal activities</t>
         </is>
       </c>
     </row>
     <row r="323">
       <c r="A323" s="1" t="n">
-        <v>547</v>
+        <v>544</v>
       </c>
       <c r="B323" t="inlineStr">
         <is>
-          <t>7010</t>
+          <t>6920</t>
         </is>
       </c>
       <c r="C323" t="inlineStr">
         <is>
-          <t>Activities of head offices</t>
+          <t>Accounting, bookkeeping and auditing activities; tax consultancy</t>
         </is>
       </c>
     </row>
     <row r="324">
       <c r="A324" s="1" t="n">
-        <v>549</v>
+        <v>547</v>
       </c>
       <c r="B324" t="inlineStr">
         <is>
-          <t>7020</t>
+          <t>7010</t>
         </is>
       </c>
       <c r="C324" t="inlineStr">
         <is>
-          <t>Management consultancy activities</t>
+          <t>Activities of head offices</t>
         </is>
       </c>
     </row>
     <row r="325">
       <c r="A325" s="1" t="n">
-        <v>552</v>
+        <v>549</v>
       </c>
       <c r="B325" t="inlineStr">
         <is>
-          <t>7110</t>
+          <t>7020</t>
         </is>
       </c>
       <c r="C325" t="inlineStr">
         <is>
-          <t>Architectural and engineering activities and related technical consultancy</t>
+          <t>Management consultancy activities</t>
         </is>
       </c>
     </row>
     <row r="326">
       <c r="A326" s="1" t="n">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B326" t="inlineStr">
         <is>
-          <t>7120</t>
+          <t>7110</t>
         </is>
       </c>
       <c r="C326" t="inlineStr">
         <is>
-          <t>Technical testing and analysis</t>
+          <t>Architectural and engineering activities and related technical consultancy</t>
         </is>
       </c>
     </row>
     <row r="327">
       <c r="A327" s="1" t="n">
-        <v>557</v>
+        <v>554</v>
       </c>
       <c r="B327" t="inlineStr">
         <is>
-          <t>7210</t>
+          <t>7120</t>
         </is>
       </c>
       <c r="C327" t="inlineStr">
         <is>
-          <t>Research and experimental development on natural sciences and engineering</t>
+          <t>Technical testing and analysis</t>
         </is>
       </c>
     </row>
     <row r="328">
       <c r="A328" s="1" t="n">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B328" t="inlineStr">
         <is>
-          <t>7220</t>
+          <t>7210</t>
         </is>
       </c>
       <c r="C328" t="inlineStr">
         <is>
-          <t>Research and experimental development on social sciences and humanities</t>
+          <t>Research and experimental development on natural sciences and engineering</t>
         </is>
       </c>
     </row>
     <row r="329">
       <c r="A329" s="1" t="n">
-        <v>562</v>
+        <v>559</v>
       </c>
       <c r="B329" t="inlineStr">
         <is>
-          <t>7310</t>
+          <t>7220</t>
         </is>
       </c>
       <c r="C329" t="inlineStr">
         <is>
-          <t>Advertising</t>
+          <t>Research and experimental development on social sciences and humanities</t>
         </is>
       </c>
     </row>
     <row r="330">
       <c r="A330" s="1" t="n">
-        <v>564</v>
+        <v>562</v>
       </c>
       <c r="B330" t="inlineStr">
         <is>
-          <t>7320</t>
+          <t>7310</t>
         </is>
       </c>
       <c r="C330" t="inlineStr">
         <is>
-          <t>Market research and public opinion polling</t>
+          <t>Advertising</t>
         </is>
       </c>
     </row>
     <row r="331">
       <c r="A331" s="1" t="n">
-        <v>567</v>
+        <v>564</v>
       </c>
       <c r="B331" t="inlineStr">
         <is>
-          <t>7410</t>
+          <t>7320</t>
         </is>
       </c>
       <c r="C331" t="inlineStr">
         <is>
-          <t>Specialized design activities</t>
+          <t>Market research and public opinion polling</t>
         </is>
       </c>
     </row>
     <row r="332">
       <c r="A332" s="1" t="n">
-        <v>569</v>
+        <v>567</v>
       </c>
       <c r="B332" t="inlineStr">
         <is>
-          <t>7420</t>
+          <t>7410</t>
         </is>
       </c>
       <c r="C332" t="inlineStr">
         <is>
-          <t>Photographic activities</t>
+          <t>Specialized design activities</t>
         </is>
       </c>
     </row>
     <row r="333">
       <c r="A333" s="1" t="n">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B333" t="inlineStr">
         <is>
-          <t>7490</t>
+          <t>7420</t>
         </is>
       </c>
       <c r="C333" t="inlineStr">
         <is>
-          <t>Other professional, scientific and technical activities n.e.c.</t>
+          <t>Photographic activities</t>
         </is>
       </c>
     </row>
     <row r="334">
       <c r="A334" s="1" t="n">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B334" t="inlineStr">
         <is>
-          <t>7500</t>
+          <t>7490</t>
         </is>
       </c>
       <c r="C334" t="inlineStr">
         <is>
-          <t>Veterinary activities</t>
+          <t>Other professional, scientific and technical activities n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="335">
       <c r="A335" s="1" t="n">
-        <v>577</v>
+        <v>574</v>
       </c>
       <c r="B335" t="inlineStr">
         <is>
-          <t>7710</t>
+          <t>7500</t>
         </is>
       </c>
       <c r="C335" t="inlineStr">
         <is>
-          <t>Renting and leasing of motor vehicles</t>
+          <t>Veterinary activities</t>
         </is>
       </c>
     </row>
     <row r="336">
       <c r="A336" s="1" t="n">
-        <v>579</v>
+        <v>577</v>
       </c>
       <c r="B336" t="inlineStr">
         <is>
-          <t>7721</t>
+          <t>7710</t>
         </is>
       </c>
       <c r="C336" t="inlineStr">
         <is>
-          <t>Renting and leasing of recreational and sports goods</t>
+          <t>Renting and leasing of motor vehicles</t>
         </is>
       </c>
     </row>
     <row r="337">
       <c r="A337" s="1" t="n">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B337" t="inlineStr">
         <is>
-          <t>7722</t>
+          <t>7721</t>
         </is>
       </c>
       <c r="C337" t="inlineStr">
         <is>
-          <t>Renting of video tapes and disks</t>
+          <t>Renting and leasing of recreational and sports goods</t>
         </is>
       </c>
     </row>
     <row r="338">
       <c r="A338" s="1" t="n">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B338" t="inlineStr">
         <is>
-          <t>7729</t>
+          <t>7722</t>
         </is>
       </c>
       <c r="C338" t="inlineStr">
         <is>
-          <t>Renting and leasing of other personal and household goods</t>
+          <t>Renting of video tapes and disks</t>
         </is>
       </c>
     </row>
     <row r="339">
       <c r="A339" s="1" t="n">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="B339" t="inlineStr">
         <is>
-          <t>7730</t>
+          <t>7729</t>
         </is>
       </c>
       <c r="C339" t="inlineStr">
         <is>
-          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
+          <t>Renting and leasing of other personal and household goods</t>
         </is>
       </c>
     </row>
     <row r="340">
       <c r="A340" s="1" t="n">
-        <v>585</v>
+        <v>583</v>
       </c>
       <c r="B340" t="inlineStr">
         <is>
-          <t>7740</t>
+          <t>7730</t>
         </is>
       </c>
       <c r="C340" t="inlineStr">
         <is>
-          <t>Leasing of intellectual property and similar products, except copyrighted works</t>
+          <t>Renting and leasing of other machinery, equipment and tangible goods</t>
         </is>
       </c>
     </row>
     <row r="341">
       <c r="A341" s="1" t="n">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B341" t="inlineStr">
         <is>
-          <t>7810</t>
+          <t>7740</t>
         </is>
       </c>
       <c r="C341" t="inlineStr">
         <is>
-          <t>Activities of employment placement agencies</t>
+          <t>Leasing of intellectual property and similar products, except copyrighted works</t>
         </is>
       </c>
     </row>
     <row r="342">
       <c r="A342" s="1" t="n">
-        <v>590</v>
+        <v>588</v>
       </c>
       <c r="B342" t="inlineStr">
         <is>
-          <t>7820</t>
+          <t>7810</t>
         </is>
       </c>
       <c r="C342" t="inlineStr">
         <is>
-          <t>Temporary employment agency activities</t>
+          <t>Activities of employment placement agencies</t>
         </is>
       </c>
     </row>
     <row r="343">
       <c r="A343" s="1" t="n">
-        <v>592</v>
+        <v>590</v>
       </c>
       <c r="B343" t="inlineStr">
         <is>
-          <t>7830</t>
+          <t>7820</t>
         </is>
       </c>
       <c r="C343" t="inlineStr">
         <is>
-          <t>Other human resources provision</t>
+          <t>Temporary employment agency activities</t>
         </is>
       </c>
     </row>
     <row r="344">
       <c r="A344" s="1" t="n">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B344" t="inlineStr">
         <is>
-          <t>7911</t>
+          <t>7830</t>
         </is>
       </c>
       <c r="C344" t="inlineStr">
         <is>
-          <t>Travel agency activities</t>
+          <t>Other human resources provision</t>
         </is>
       </c>
     </row>
     <row r="345">
       <c r="A345" s="1" t="n">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B345" t="inlineStr">
         <is>
-          <t>7912</t>
+          <t>7911</t>
         </is>
       </c>
       <c r="C345" t="inlineStr">
         <is>
-          <t>Tour operator activities</t>
+          <t>Travel agency activities</t>
         </is>
       </c>
     </row>
     <row r="346">
       <c r="A346" s="1" t="n">
-        <v>598</v>
+        <v>596</v>
       </c>
       <c r="B346" t="inlineStr">
         <is>
-          <t>7990</t>
+          <t>7912</t>
         </is>
       </c>
       <c r="C346" t="inlineStr">
         <is>
-          <t>Other reservation service and related activities</t>
+          <t>Tour operator activities</t>
         </is>
       </c>
     </row>
     <row r="347">
       <c r="A347" s="1" t="n">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B347" t="inlineStr">
         <is>
-          <t>8010</t>
+          <t>7990</t>
         </is>
       </c>
       <c r="C347" t="inlineStr">
         <is>
-          <t>Private security activities</t>
+          <t>Other reservation service and related activities</t>
         </is>
       </c>
     </row>
     <row r="348">
       <c r="A348" s="1" t="n">
-        <v>603</v>
+        <v>601</v>
       </c>
       <c r="B348" t="inlineStr">
         <is>
-          <t>8020</t>
+          <t>8010</t>
         </is>
       </c>
       <c r="C348" t="inlineStr">
         <is>
-          <t>Security systems service activities</t>
+          <t>Private security activities</t>
         </is>
       </c>
     </row>
     <row r="349">
       <c r="A349" s="1" t="n">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B349" t="inlineStr">
         <is>
-          <t>8030</t>
+          <t>8020</t>
         </is>
       </c>
       <c r="C349" t="inlineStr">
         <is>
-          <t>Investigation activities</t>
+          <t>Security systems service activities</t>
         </is>
       </c>
     </row>
     <row r="350">
       <c r="A350" s="1" t="n">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B350" t="inlineStr">
         <is>
-          <t>8110</t>
+          <t>8030</t>
         </is>
       </c>
       <c r="C350" t="inlineStr">
         <is>
-          <t>Combined facilities support activities</t>
+          <t>Investigation activities</t>
         </is>
       </c>
     </row>
     <row r="351">
       <c r="A351" s="1" t="n">
-        <v>610</v>
+        <v>608</v>
       </c>
       <c r="B351" t="inlineStr">
         <is>
-          <t>8121</t>
+          <t>8110</t>
         </is>
       </c>
       <c r="C351" t="inlineStr">
         <is>
-          <t>General cleaning of buildings</t>
+          <t>Combined facilities support activities</t>
         </is>
       </c>
     </row>
     <row r="352">
       <c r="A352" s="1" t="n">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B352" t="inlineStr">
         <is>
-          <t>8129</t>
+          <t>8121</t>
         </is>
       </c>
       <c r="C352" t="inlineStr">
         <is>
-          <t>Other building and industrial cleaning activities</t>
+          <t>General cleaning of buildings</t>
         </is>
       </c>
     </row>
     <row r="353">
       <c r="A353" s="1" t="n">
-        <v>613</v>
+        <v>611</v>
       </c>
       <c r="B353" t="inlineStr">
         <is>
-          <t>8130</t>
+          <t>8129</t>
         </is>
       </c>
       <c r="C353" t="inlineStr">
         <is>
-          <t>Landscape care and maintenance service activities</t>
+          <t>Other building and industrial cleaning activities</t>
         </is>
       </c>
     </row>
     <row r="354">
       <c r="A354" s="1" t="n">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B354" t="inlineStr">
         <is>
-          <t>8211</t>
+          <t>8130</t>
         </is>
       </c>
       <c r="C354" t="inlineStr">
         <is>
-          <t>Combined office administrative service activities</t>
+          <t>Landscape care and maintenance service activities</t>
         </is>
       </c>
     </row>
     <row r="355">
       <c r="A355" s="1" t="n">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B355" t="inlineStr">
         <is>
-          <t>8219</t>
+          <t>8211</t>
         </is>
       </c>
       <c r="C355" t="inlineStr">
         <is>
-          <t>Photocopying, document preparation and other specialized office support activities</t>
+          <t>Combined office administrative service activities</t>
         </is>
       </c>
     </row>
     <row r="356">
       <c r="A356" s="1" t="n">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="B356" t="inlineStr">
         <is>
-          <t>8220</t>
+          <t>8219</t>
         </is>
       </c>
       <c r="C356" t="inlineStr">
         <is>
-          <t>Activities of call centres</t>
+          <t>Photocopying, document preparation and other specialized office support activities</t>
         </is>
       </c>
     </row>
     <row r="357">
       <c r="A357" s="1" t="n">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="B357" t="inlineStr">
         <is>
-          <t>8230</t>
+          <t>8220</t>
         </is>
       </c>
       <c r="C357" t="inlineStr">
         <is>
-          <t>Organization of conventions and trade shows</t>
+          <t>Activities of call centres</t>
         </is>
       </c>
     </row>
     <row r="358">
       <c r="A358" s="1" t="n">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="B358" t="inlineStr">
         <is>
-          <t>8291</t>
+          <t>8230</t>
         </is>
       </c>
       <c r="C358" t="inlineStr">
         <is>
-          <t>Activities of collection agencies and credit bureaus</t>
+          <t>Organization of conventions and trade shows</t>
         </is>
       </c>
     </row>
     <row r="359">
       <c r="A359" s="1" t="n">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B359" t="inlineStr">
         <is>
-          <t>8292</t>
+          <t>8291</t>
         </is>
       </c>
       <c r="C359" t="inlineStr">
         <is>
-          <t>Packaging activities</t>
+          <t>Activities of collection agencies and credit bureaus</t>
         </is>
       </c>
     </row>
     <row r="360">
       <c r="A360" s="1" t="n">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B360" t="inlineStr">
         <is>
-          <t>8299</t>
+          <t>8292</t>
         </is>
       </c>
       <c r="C360" t="inlineStr">
         <is>
-          <t>Other business support service activities n.e.c.</t>
+          <t>Packaging activities</t>
         </is>
       </c>
     </row>
     <row r="361">
       <c r="A361" s="1" t="n">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B361" t="inlineStr">
         <is>
-          <t>8411</t>
+          <t>8299</t>
         </is>
       </c>
       <c r="C361" t="inlineStr">
         <is>
-          <t>General public administration activities</t>
+          <t>Other business support service activities n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="362">
       <c r="A362" s="1" t="n">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B362" t="inlineStr">
         <is>
-          <t>8412</t>
+          <t>8411</t>
         </is>
       </c>
       <c r="C362" t="inlineStr">
         <is>
-          <t>Regulation of the activities of providing health care, education, cultural services and other social services, excluding social security</t>
+          <t>General public administration activities</t>
         </is>
       </c>
     </row>
     <row r="363">
       <c r="A363" s="1" t="n">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B363" t="inlineStr">
         <is>
-          <t>8413</t>
+          <t>8412</t>
         </is>
       </c>
       <c r="C363" t="inlineStr">
         <is>
-          <t>Regulation of and contribution to more efficient operation of businesses</t>
+          <t>Regulation of the activities of providing health care, education, cultural services and other social services, excluding social security</t>
         </is>
       </c>
     </row>
     <row r="364">
       <c r="A364" s="1" t="n">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="B364" t="inlineStr">
         <is>
-          <t>8421</t>
+          <t>8413</t>
         </is>
       </c>
       <c r="C364" t="inlineStr">
         <is>
-          <t>Foreign affairs</t>
+          <t>Regulation of and contribution to more efficient operation of businesses</t>
         </is>
       </c>
     </row>
     <row r="365">
       <c r="A365" s="1" t="n">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B365" t="inlineStr">
         <is>
-          <t>8422</t>
+          <t>8421</t>
         </is>
       </c>
       <c r="C365" t="inlineStr">
         <is>
-          <t>Defence activities</t>
+          <t>Foreign affairs</t>
         </is>
       </c>
     </row>
     <row r="366">
       <c r="A366" s="1" t="n">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B366" t="inlineStr">
         <is>
-          <t>8423</t>
+          <t>8422</t>
         </is>
       </c>
       <c r="C366" t="inlineStr">
         <is>
-          <t>Public order and safety activities</t>
+          <t>Defence activities</t>
         </is>
       </c>
     </row>
     <row r="367">
       <c r="A367" s="1" t="n">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="B367" t="inlineStr">
         <is>
-          <t>8430</t>
+          <t>8423</t>
         </is>
       </c>
       <c r="C367" t="inlineStr">
         <is>
-          <t>Compulsory social security activities</t>
+          <t>Public order and safety activities</t>
         </is>
       </c>
     </row>
     <row r="368">
       <c r="A368" s="1" t="n">
-        <v>639</v>
+        <v>636</v>
       </c>
       <c r="B368" t="inlineStr">
         <is>
-          <t>8510</t>
+          <t>8430</t>
         </is>
       </c>
       <c r="C368" t="inlineStr">
         <is>
-          <t>Pre-primary and primary education</t>
+          <t>Compulsory social security activities</t>
         </is>
       </c>
     </row>
     <row r="369">
       <c r="A369" s="1" t="n">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="B369" t="inlineStr">
         <is>
-          <t>8521</t>
+          <t>8510</t>
         </is>
       </c>
       <c r="C369" t="inlineStr">
         <is>
-          <t>General secondary education</t>
+          <t>Pre-primary and primary education</t>
         </is>
       </c>
     </row>
     <row r="370">
       <c r="A370" s="1" t="n">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="B370" t="inlineStr">
         <is>
-          <t>8522</t>
+          <t>8521</t>
         </is>
       </c>
       <c r="C370" t="inlineStr">
         <is>
-          <t>Technical and vocational secondary education</t>
+          <t>General secondary education</t>
         </is>
       </c>
     </row>
     <row r="371">
       <c r="A371" s="1" t="n">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="B371" t="inlineStr">
         <is>
-          <t>8530</t>
+          <t>8522</t>
         </is>
       </c>
       <c r="C371" t="inlineStr">
         <is>
-          <t>Higher education</t>
+          <t>Technical and vocational secondary education</t>
         </is>
       </c>
     </row>
     <row r="372">
       <c r="A372" s="1" t="n">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="B372" t="inlineStr">
         <is>
-          <t>8541</t>
+          <t>8530</t>
         </is>
       </c>
       <c r="C372" t="inlineStr">
         <is>
-          <t>Sports and recreation education</t>
+          <t>Higher education</t>
         </is>
       </c>
     </row>
     <row r="373">
       <c r="A373" s="1" t="n">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="B373" t="inlineStr">
         <is>
-          <t>8542</t>
+          <t>8541</t>
         </is>
       </c>
       <c r="C373" t="inlineStr">
         <is>
-          <t>Cultural education</t>
+          <t>Sports and recreation education</t>
         </is>
       </c>
     </row>
     <row r="374">
       <c r="A374" s="1" t="n">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="B374" t="inlineStr">
         <is>
-          <t>8549</t>
+          <t>8542</t>
         </is>
       </c>
       <c r="C374" t="inlineStr">
         <is>
-          <t>Other education n.e.c.</t>
+          <t>Cultural education</t>
         </is>
       </c>
     </row>
     <row r="375">
       <c r="A375" s="1" t="n">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B375" t="inlineStr">
         <is>
-          <t>8550</t>
+          <t>8549</t>
         </is>
       </c>
       <c r="C375" t="inlineStr">
         <is>
-          <t>Educational support activities</t>
+          <t>Other education n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="376">
       <c r="A376" s="1" t="n">
-        <v>652</v>
+        <v>649</v>
       </c>
       <c r="B376" t="inlineStr">
         <is>
-          <t>8610</t>
+          <t>8550</t>
         </is>
       </c>
       <c r="C376" t="inlineStr">
         <is>
-          <t>Hospital activities</t>
+          <t>Educational support activities</t>
         </is>
       </c>
     </row>
     <row r="377">
       <c r="A377" s="1" t="n">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="B377" t="inlineStr">
         <is>
-          <t>8620</t>
+          <t>8610</t>
         </is>
       </c>
       <c r="C377" t="inlineStr">
         <is>
-          <t>Medical and dental practice activities</t>
+          <t>Hospital activities</t>
         </is>
       </c>
     </row>
     <row r="378">
       <c r="A378" s="1" t="n">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="B378" t="inlineStr">
         <is>
-          <t>8690</t>
+          <t>8620</t>
         </is>
       </c>
       <c r="C378" t="inlineStr">
         <is>
-          <t>Other human health activities</t>
+          <t>Medical and dental practice activities</t>
         </is>
       </c>
     </row>
     <row r="379">
       <c r="A379" s="1" t="n">
-        <v>659</v>
+        <v>656</v>
       </c>
       <c r="B379" t="inlineStr">
         <is>
-          <t>8710</t>
+          <t>8690</t>
         </is>
       </c>
       <c r="C379" t="inlineStr">
         <is>
-          <t>Residential nursing care facilities</t>
+          <t>Other human health activities</t>
         </is>
       </c>
     </row>
     <row r="380">
       <c r="A380" s="1" t="n">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="B380" t="inlineStr">
         <is>
-          <t>8720</t>
+          <t>8710</t>
         </is>
       </c>
       <c r="C380" t="inlineStr">
         <is>
-          <t>Residential care activities for mental retardation, mental health and substance abuse</t>
+          <t>Residential nursing care facilities</t>
         </is>
       </c>
     </row>
     <row r="381">
       <c r="A381" s="1" t="n">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="B381" t="inlineStr">
         <is>
-          <t>8730</t>
+          <t>8720</t>
         </is>
       </c>
       <c r="C381" t="inlineStr">
         <is>
-          <t>Residential care activities for the elderly and disabled</t>
+          <t>Residential care activities for mental retardation, mental health and substance abuse</t>
         </is>
       </c>
     </row>
     <row r="382">
       <c r="A382" s="1" t="n">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="B382" t="inlineStr">
         <is>
-          <t>8790</t>
+          <t>8730</t>
         </is>
       </c>
       <c r="C382" t="inlineStr">
         <is>
-          <t>Other residential care activities</t>
+          <t>Residential care activities for the elderly and disabled</t>
         </is>
       </c>
     </row>
     <row r="383">
       <c r="A383" s="1" t="n">
-        <v>668</v>
+        <v>665</v>
       </c>
       <c r="B383" t="inlineStr">
         <is>
-          <t>8810</t>
+          <t>8790</t>
         </is>
       </c>
       <c r="C383" t="inlineStr">
         <is>
-          <t>Social work activities without accommodation for the elderly and disabled</t>
+          <t>Other residential care activities</t>
         </is>
       </c>
     </row>
     <row r="384">
       <c r="A384" s="1" t="n">
-        <v>672</v>
+        <v>668</v>
       </c>
       <c r="B384" t="inlineStr">
         <is>
-          <t>9000</t>
+          <t>8810</t>
         </is>
       </c>
       <c r="C384" t="inlineStr">
         <is>
-          <t>Creative, arts and entertainment activities</t>
+          <t>Social work activities without accommodation for the elderly and disabled</t>
         </is>
       </c>
     </row>
     <row r="385">
       <c r="A385" s="1" t="n">
-        <v>675</v>
+        <v>670</v>
       </c>
       <c r="B385" t="inlineStr">
         <is>
-          <t>9101</t>
+          <t>8890</t>
         </is>
       </c>
       <c r="C385" t="inlineStr">
         <is>
-          <t>Library and archives activities</t>
+          <t>Other social work activities without accommodation</t>
         </is>
       </c>
     </row>
     <row r="386">
       <c r="A386" s="1" t="n">
-        <v>676</v>
+        <v>672</v>
       </c>
       <c r="B386" t="inlineStr">
         <is>
-          <t>9102</t>
+          <t>9000</t>
         </is>
       </c>
       <c r="C386" t="inlineStr">
         <is>
-          <t>Museums activities and operation of historical sites and buildings</t>
+          <t>Creative, arts and entertainment activities</t>
         </is>
       </c>
     </row>
     <row r="387">
       <c r="A387" s="1" t="n">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="B387" t="inlineStr">
         <is>
-          <t>9103</t>
+          <t>9101</t>
         </is>
       </c>
       <c r="C387" t="inlineStr">
         <is>
-          <t>Botanical and zoological gardens and nature reserves activities</t>
+          <t>Library and archives activities</t>
         </is>
       </c>
     </row>
     <row r="388">
       <c r="A388" s="1" t="n">
-        <v>680</v>
+        <v>676</v>
       </c>
       <c r="B388" t="inlineStr">
         <is>
-          <t>9200</t>
+          <t>9102</t>
         </is>
       </c>
       <c r="C388" t="inlineStr">
         <is>
-          <t>Gambling and betting activities</t>
+          <t>Museums activities and operation of historical sites and buildings</t>
         </is>
       </c>
     </row>
     <row r="389">
       <c r="A389" s="1" t="n">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="B389" t="inlineStr">
         <is>
-          <t>9311</t>
+          <t>9103</t>
         </is>
       </c>
       <c r="C389" t="inlineStr">
         <is>
-          <t>Operation of sports facilities</t>
+          <t>Botanical and zoological gardens and nature reserves activities</t>
         </is>
       </c>
     </row>
     <row r="390">
       <c r="A390" s="1" t="n">
-        <v>684</v>
+        <v>680</v>
       </c>
       <c r="B390" t="inlineStr">
         <is>
-          <t>9312</t>
+          <t>9200</t>
         </is>
       </c>
       <c r="C390" t="inlineStr">
         <is>
-          <t>Activities of sports clubs</t>
+          <t>Gambling and betting activities</t>
         </is>
       </c>
     </row>
     <row r="391">
       <c r="A391" s="1" t="n">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="B391" t="inlineStr">
         <is>
-          <t>9319</t>
+          <t>9311</t>
         </is>
       </c>
       <c r="C391" t="inlineStr">
         <is>
-          <t>Other sports activities</t>
+          <t>Operation of sports facilities</t>
         </is>
       </c>
     </row>
     <row r="392">
       <c r="A392" s="1" t="n">
-        <v>687</v>
+        <v>684</v>
       </c>
       <c r="B392" t="inlineStr">
         <is>
-          <t>9321</t>
+          <t>9312</t>
         </is>
       </c>
       <c r="C392" t="inlineStr">
         <is>
-          <t>Activities of amusement parks and theme parks</t>
+          <t>Activities of sports clubs</t>
         </is>
       </c>
     </row>
     <row r="393">
       <c r="A393" s="1" t="n">
-        <v>688</v>
+        <v>685</v>
       </c>
       <c r="B393" t="inlineStr">
         <is>
-          <t>9329</t>
+          <t>9319</t>
         </is>
       </c>
       <c r="C393" t="inlineStr">
         <is>
-          <t>Other amusement and recreation activities n.e.c.</t>
+          <t>Other sports activities</t>
         </is>
       </c>
     </row>
     <row r="394">
       <c r="A394" s="1" t="n">
-        <v>691</v>
+        <v>687</v>
       </c>
       <c r="B394" t="inlineStr">
         <is>
-          <t>9411</t>
+          <t>9321</t>
         </is>
       </c>
       <c r="C394" t="inlineStr">
         <is>
-          <t>Activities of business and employers membership organizations</t>
+          <t>Activities of amusement parks and theme parks</t>
         </is>
       </c>
     </row>
     <row r="395">
       <c r="A395" s="1" t="n">
-        <v>692</v>
+        <v>688</v>
       </c>
       <c r="B395" t="inlineStr">
         <is>
-          <t>9412</t>
+          <t>9329</t>
         </is>
       </c>
       <c r="C395" t="inlineStr">
         <is>
-          <t>Activities of professional membership organizations</t>
+          <t>Other amusement and recreation activities n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="396">
       <c r="A396" s="1" t="n">
-        <v>694</v>
+        <v>691</v>
       </c>
       <c r="B396" t="inlineStr">
         <is>
-          <t>9420</t>
+          <t>9411</t>
         </is>
       </c>
       <c r="C396" t="inlineStr">
         <is>
-          <t>Activities of trade unions</t>
+          <t>Activities of business and employers membership organizations</t>
         </is>
       </c>
     </row>
     <row r="397">
       <c r="A397" s="1" t="n">
-        <v>696</v>
+        <v>692</v>
       </c>
       <c r="B397" t="inlineStr">
         <is>
-          <t>9491</t>
+          <t>9412</t>
         </is>
       </c>
       <c r="C397" t="inlineStr">
         <is>
-          <t>Activities of religious organizations</t>
+          <t>Activities of professional membership organizations</t>
         </is>
       </c>
     </row>
     <row r="398">
       <c r="A398" s="1" t="n">
-        <v>697</v>
+        <v>694</v>
       </c>
       <c r="B398" t="inlineStr">
         <is>
-          <t>9492</t>
+          <t>9420</t>
         </is>
       </c>
       <c r="C398" t="inlineStr">
         <is>
-          <t>Activities of political organizations</t>
+          <t>Activities of trade unions</t>
         </is>
       </c>
     </row>
     <row r="399">
       <c r="A399" s="1" t="n">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="B399" t="inlineStr">
         <is>
-          <t>9499</t>
+          <t>9491</t>
         </is>
       </c>
       <c r="C399" t="inlineStr">
         <is>
-          <t>Activities of other membership organizations n.e.c.</t>
+          <t>Activities of religious organizations</t>
         </is>
       </c>
     </row>
     <row r="400">
       <c r="A400" s="1" t="n">
-        <v>701</v>
+        <v>697</v>
       </c>
       <c r="B400" t="inlineStr">
         <is>
-          <t>9511</t>
+          <t>9492</t>
         </is>
       </c>
       <c r="C400" t="inlineStr">
         <is>
-          <t>Repair of computers and peripheral equipment</t>
+          <t>Activities of political organizations</t>
         </is>
       </c>
     </row>
     <row r="401">
       <c r="A401" s="1" t="n">
-        <v>702</v>
+        <v>698</v>
       </c>
       <c r="B401" t="inlineStr">
         <is>
-          <t>9512</t>
+          <t>9499</t>
         </is>
       </c>
       <c r="C401" t="inlineStr">
         <is>
-          <t>Repair of communication equipment</t>
+          <t>Activities of other membership organizations n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="402">
       <c r="A402" s="1" t="n">
-        <v>704</v>
+        <v>701</v>
       </c>
       <c r="B402" t="inlineStr">
         <is>
-          <t>9521</t>
+          <t>9511</t>
         </is>
       </c>
       <c r="C402" t="inlineStr">
         <is>
-          <t>Repair of consumer electronics</t>
+          <t>Repair of computers and peripheral equipment</t>
         </is>
       </c>
     </row>
     <row r="403">
       <c r="A403" s="1" t="n">
-        <v>705</v>
+        <v>702</v>
       </c>
       <c r="B403" t="inlineStr">
         <is>
-          <t>9522</t>
+          <t>9512</t>
         </is>
       </c>
       <c r="C403" t="inlineStr">
         <is>
-          <t>Repair of household appliances and home and garden equipment</t>
+          <t>Repair of communication equipment</t>
         </is>
       </c>
     </row>
     <row r="404">
       <c r="A404" s="1" t="n">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="B404" t="inlineStr">
         <is>
-          <t>9523</t>
+          <t>9521</t>
         </is>
       </c>
       <c r="C404" t="inlineStr">
         <is>
-          <t>Repair of footwear and leather goods</t>
+          <t>Repair of consumer electronics</t>
         </is>
       </c>
     </row>
     <row r="405">
       <c r="A405" s="1" t="n">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="B405" t="inlineStr">
         <is>
-          <t>9524</t>
+          <t>9522</t>
         </is>
       </c>
       <c r="C405" t="inlineStr">
         <is>
-          <t>Repair of furniture and home furnishings</t>
+          <t>Repair of household appliances and home and garden equipment</t>
         </is>
       </c>
     </row>
     <row r="406">
       <c r="A406" s="1" t="n">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="B406" t="inlineStr">
         <is>
-          <t>9529</t>
+          <t>9523</t>
         </is>
       </c>
       <c r="C406" t="inlineStr">
         <is>
-          <t>Repair of other personal and household goods</t>
+          <t>Repair of footwear and leather goods</t>
         </is>
       </c>
     </row>
     <row r="407">
       <c r="A407" s="1" t="n">
-        <v>711</v>
+        <v>707</v>
       </c>
       <c r="B407" t="inlineStr">
         <is>
-          <t>9601</t>
+          <t>9524</t>
         </is>
       </c>
       <c r="C407" t="inlineStr">
         <is>
-          <t>Washing and (dry-) cleaning of textile and fur products</t>
+          <t>Repair of furniture and home furnishings</t>
         </is>
       </c>
     </row>
     <row r="408">
       <c r="A408" s="1" t="n">
-        <v>712</v>
+        <v>708</v>
       </c>
       <c r="B408" t="inlineStr">
         <is>
-          <t>9602</t>
+          <t>9529</t>
         </is>
       </c>
       <c r="C408" t="inlineStr">
         <is>
-          <t>Hairdressing and other beauty treatment</t>
+          <t>Repair of other personal and household goods</t>
         </is>
       </c>
     </row>
     <row r="409">
       <c r="A409" s="1" t="n">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="B409" t="inlineStr">
         <is>
-          <t>9603</t>
+          <t>9601</t>
         </is>
       </c>
       <c r="C409" t="inlineStr">
         <is>
-          <t>Funeral and related activities</t>
+          <t>Washing and (dry-) cleaning of textile and fur products</t>
         </is>
       </c>
     </row>
     <row r="410">
       <c r="A410" s="1" t="n">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="B410" t="inlineStr">
         <is>
-          <t>9609</t>
+          <t>9602</t>
         </is>
       </c>
       <c r="C410" t="inlineStr">
         <is>
-          <t>Other personal service activities n.e.c.</t>
+          <t>Hairdressing and other beauty treatment</t>
         </is>
       </c>
     </row>
     <row r="411">
       <c r="A411" s="1" t="n">
-        <v>717</v>
+        <v>713</v>
       </c>
       <c r="B411" t="inlineStr">
         <is>
-          <t>9700</t>
+          <t>9603</t>
         </is>
       </c>
       <c r="C411" t="inlineStr">
         <is>
-          <t>Activities of households as employers of domestic personnel</t>
+          <t>Funeral and related activities</t>
         </is>
       </c>
     </row>
     <row r="412">
       <c r="A412" s="1" t="n">
-        <v>720</v>
+        <v>714</v>
       </c>
       <c r="B412" t="inlineStr">
         <is>
-          <t>9810</t>
+          <t>9609</t>
         </is>
       </c>
       <c r="C412" t="inlineStr">
         <is>
-          <t>Undifferentiated goods-producing activities of private households for own use</t>
+          <t>Other personal service activities n.e.c.</t>
         </is>
       </c>
     </row>
     <row r="413">
       <c r="A413" s="1" t="n">
-        <v>722</v>
+        <v>717</v>
       </c>
       <c r="B413" t="inlineStr">
         <is>
-          <t>9820</t>
+          <t>9700</t>
         </is>
       </c>
       <c r="C413" t="inlineStr">
         <is>
-          <t>Undifferentiated service-producing activities of private households for own use</t>
+          <t>Activities of households as employers of domestic personnel</t>
         </is>
       </c>
     </row>
     <row r="414">
       <c r="A414" s="1" t="n">
+        <v>720</v>
+      </c>
+      <c r="B414" t="inlineStr">
+        <is>
+          <t>9810</t>
+        </is>
+      </c>
+      <c r="C414" t="inlineStr">
+        <is>
+          <t>Undifferentiated goods-producing activities of private households for own use</t>
+        </is>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" s="1" t="n">
+        <v>722</v>
+      </c>
+      <c r="B415" t="inlineStr">
+        <is>
+          <t>9820</t>
+        </is>
+      </c>
+      <c r="C415" t="inlineStr">
+        <is>
+          <t>Undifferentiated service-producing activities of private households for own use</t>
+        </is>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" s="1" t="n">
         <v>725</v>
       </c>
-      <c r="B414" t="inlineStr">
+      <c r="B416" t="inlineStr">
         <is>
           <t>9900</t>
         </is>
       </c>
-      <c r="C414" t="inlineStr">
+      <c r="C416" t="inlineStr">
         <is>
           <t>Activities of extraterritorial organizations and bodies</t>
         </is>
